--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124082a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124082a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -31,16 +31,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,6 +529,15 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5244791686992127</v>
+      </c>
+      <c r="D5">
+        <v>4.782584387210245</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -544,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5244791686992127</v>
+        <v>2.283320928401225</v>
       </c>
       <c r="D6">
-        <v>4.782584387210245</v>
+        <v>22.77374268997038</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -558,16 +561,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.283320928401225</v>
+        <v>1.188406837674339</v>
       </c>
       <c r="D7">
-        <v>22.77374268997038</v>
+        <v>11.88624079904885</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.80634746046752</v>
+      </c>
+      <c r="D8">
+        <v>43.1689904980184</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -577,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.188406837674339</v>
+        <v>4.476142817110706</v>
       </c>
       <c r="D9">
-        <v>11.88624079904885</v>
+        <v>38.27605344558445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -591,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.80634746046752</v>
+        <v>2.346178975764843</v>
       </c>
       <c r="D10">
-        <v>43.1689904980184</v>
+        <v>27.92725944100212</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -605,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.476142817110706</v>
+        <v>4.608388535915693</v>
       </c>
       <c r="D11">
-        <v>38.27605344558445</v>
+        <v>32.25871975140985</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -619,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.346178975764843</v>
+        <v>1.737123497871785</v>
       </c>
       <c r="D12">
-        <v>27.92725944100212</v>
+        <v>16.32673402808713</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -633,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.608388535915693</v>
+        <v>4.519163947274241</v>
       </c>
       <c r="D13">
-        <v>32.25871975140985</v>
+        <v>44.50449263706005</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -647,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.737123497871785</v>
+        <v>7.292212389266367</v>
       </c>
       <c r="D14">
-        <v>16.32673402808713</v>
+        <v>38.54455120040794</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -661,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.519163947274241</v>
+        <v>1.163624731759608</v>
       </c>
       <c r="D15">
-        <v>44.50449263706005</v>
+        <v>6.979726632041976</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -675,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.292212389266367</v>
+        <v>7.567273499213123</v>
       </c>
       <c r="D16">
-        <v>38.54455120040794</v>
+        <v>24.59363887244265</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -689,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.163624731759608</v>
+        <v>3.332013383575415</v>
       </c>
       <c r="D17">
-        <v>6.979726632041976</v>
+        <v>48.31419406184354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -703,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.567273499213123</v>
+        <v>2.189023057626081</v>
       </c>
       <c r="D18">
-        <v>24.59363887244265</v>
+        <v>8.238136458348592</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -717,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.332013383575415</v>
+        <v>2.976977343049434</v>
       </c>
       <c r="D19">
-        <v>48.31419406184354</v>
+        <v>27.93778737323315</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -731,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.189023057626081</v>
+        <v>3.736395209523979</v>
       </c>
       <c r="D20">
-        <v>8.238136458348592</v>
+        <v>22.66746427111214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -745,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.976977343049434</v>
+        <v>1.450816089574414</v>
       </c>
       <c r="D21">
-        <v>27.93778737323315</v>
+        <v>15.74659699152431</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -759,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.736395209523979</v>
+        <v>7.685145709522297</v>
       </c>
       <c r="D22">
-        <v>22.66746427111214</v>
+        <v>21.61447230803146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -773,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.450816089574414</v>
+        <v>4.621032175906628</v>
       </c>
       <c r="D23">
-        <v>15.74659699152431</v>
+        <v>23.8160889065957</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -787,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.685145709522297</v>
+        <v>1.938472407871577</v>
       </c>
       <c r="D24">
-        <v>21.61447230803146</v>
+        <v>18.10104586930527</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -801,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.621032175906628</v>
+        <v>0.7973653816505734</v>
       </c>
       <c r="D25">
-        <v>23.8160889065957</v>
+        <v>8.976527640876439</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -815,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.938472407871577</v>
+        <v>1.345623047593027</v>
       </c>
       <c r="D26">
-        <v>18.10104586930527</v>
+        <v>17.80778597438694</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -829,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.7973653816505734</v>
+        <v>5.367620623543539</v>
       </c>
       <c r="D27">
-        <v>8.976527640876439</v>
+        <v>26.8381031177177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -843,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.345623047593027</v>
+        <v>1.653558787389826</v>
       </c>
       <c r="D28">
-        <v>17.80778597438694</v>
+        <v>22.14064375766028</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -857,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5.367620623543539</v>
+        <v>1.127603247285001</v>
       </c>
       <c r="D29">
-        <v>26.8381031177177</v>
+        <v>12.20743375510058</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -871,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1.653558787389826</v>
+        <v>1.069000326628534</v>
       </c>
       <c r="D30">
-        <v>22.14064375766028</v>
+        <v>13.96227849227413</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -885,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.127603247285001</v>
+        <v>2.062235887602339</v>
       </c>
       <c r="D31">
-        <v>12.20743375510058</v>
+        <v>19.53935028254575</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -899,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.069000326628534</v>
+        <v>1.919476512855521</v>
       </c>
       <c r="D32">
-        <v>13.96227849227413</v>
+        <v>66.22193969351548</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -913,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.062235887602339</v>
+        <v>1.226950527414242</v>
       </c>
       <c r="D33">
-        <v>19.53935028254575</v>
+        <v>19.75171329617591</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -927,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.919476512855521</v>
+        <v>1.291578022631622</v>
       </c>
       <c r="D34">
-        <v>66.22193969351548</v>
+        <v>12.8319279683782</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -941,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.226950527414242</v>
+        <v>4.077398036017045</v>
       </c>
       <c r="D35">
-        <v>19.75171329617591</v>
+        <v>38.50875922904987</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -955,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.291578022631622</v>
+        <v>3.413795342736822</v>
       </c>
       <c r="D36">
-        <v>12.8319279683782</v>
+        <v>34.13795342736822</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -969,37 +981,9 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4.077398036017045</v>
+        <v>2.271951429585223</v>
       </c>
       <c r="D37">
-        <v>38.50875922904987</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>3.413795342736822</v>
-      </c>
-      <c r="D38">
-        <v>34.13795342736822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2.271951429585223</v>
-      </c>
-      <c r="D39">
         <v>16.10412630970702</v>
       </c>
     </row>
